--- a/natmiOut/OldD4/LR-pairs_lrc2p/Col4a2-Cd93.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Col4a2-Cd93.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>162.711270534965</v>
+        <v>204.172971</v>
       </c>
       <c r="H2">
-        <v>162.711270534965</v>
+        <v>612.518913</v>
       </c>
       <c r="I2">
-        <v>0.5573550474007228</v>
+        <v>0.6071689638941019</v>
       </c>
       <c r="J2">
-        <v>0.5573550474007228</v>
+        <v>0.6577852954594023</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>169.690907399947</v>
+        <v>196.8487906666667</v>
       </c>
       <c r="N2">
-        <v>169.690907399947</v>
+        <v>590.546372</v>
       </c>
       <c r="O2">
-        <v>0.5547945231140841</v>
+        <v>0.5898085209504824</v>
       </c>
       <c r="P2">
-        <v>0.5547945231140841</v>
+        <v>0.5923834015035012</v>
       </c>
       <c r="Q2">
-        <v>27610.62314127647</v>
+        <v>40191.2024281704</v>
       </c>
       <c r="R2">
-        <v>27610.62314127647</v>
+        <v>361720.8218535336</v>
       </c>
       <c r="S2">
-        <v>0.3092175277279117</v>
+        <v>0.3581134285614171</v>
       </c>
       <c r="T2">
-        <v>0.3092175277279117</v>
+        <v>0.3896610907832263</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,55 +593,55 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>162.711270534965</v>
+        <v>204.172971</v>
       </c>
       <c r="H3">
-        <v>162.711270534965</v>
+        <v>612.518913</v>
       </c>
       <c r="I3">
-        <v>0.5573550474007228</v>
+        <v>0.6071689638941019</v>
       </c>
       <c r="J3">
-        <v>0.5573550474007228</v>
+        <v>0.6577852954594023</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>54.6034433841246</v>
+        <v>0.2899643333333333</v>
       </c>
       <c r="N3">
-        <v>54.6034433841246</v>
+        <v>0.869893</v>
       </c>
       <c r="O3">
-        <v>0.1785227729455335</v>
+        <v>0.0008688061226717315</v>
       </c>
       <c r="P3">
-        <v>0.1785227729455335</v>
+        <v>0.0008725990010553907</v>
       </c>
       <c r="Q3">
-        <v>8884.595648614943</v>
+        <v>59.202879420701</v>
       </c>
       <c r="R3">
-        <v>8884.595648614943</v>
+        <v>532.825914786309</v>
       </c>
       <c r="S3">
-        <v>0.09950056857716633</v>
+        <v>0.0005275121133274472</v>
       </c>
       <c r="T3">
-        <v>0.09950056857716633</v>
+        <v>0.0005739827917267996</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,55 +655,55 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>162.711270534965</v>
+        <v>204.172971</v>
       </c>
       <c r="H4">
-        <v>162.711270534965</v>
+        <v>612.518913</v>
       </c>
       <c r="I4">
-        <v>0.5573550474007228</v>
+        <v>0.6071689638941019</v>
       </c>
       <c r="J4">
-        <v>0.5573550474007228</v>
+        <v>0.6577852954594023</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>77.3133188485382</v>
+        <v>54.63182799999999</v>
       </c>
       <c r="N4">
-        <v>77.3133188485382</v>
+        <v>163.895484</v>
       </c>
       <c r="O4">
-        <v>0.2527713860345311</v>
+        <v>0.1636907067621498</v>
       </c>
       <c r="P4">
-        <v>0.2527713860345311</v>
+        <v>0.1644053183735123</v>
       </c>
       <c r="Q4">
-        <v>12579.74833912051</v>
+        <v>11154.34263392099</v>
       </c>
       <c r="R4">
-        <v>12579.74833912051</v>
+        <v>100389.0837052889</v>
       </c>
       <c r="S4">
-        <v>0.1408834078448225</v>
+        <v>0.09938791682386776</v>
       </c>
       <c r="T4">
-        <v>0.1408834078448225</v>
+        <v>0.1081434009214179</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,60 +717,60 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>162.711270534965</v>
+        <v>204.172971</v>
       </c>
       <c r="H5">
-        <v>162.711270534965</v>
+        <v>612.518913</v>
       </c>
       <c r="I5">
-        <v>0.5573550474007228</v>
+        <v>0.6071689638941019</v>
       </c>
       <c r="J5">
-        <v>0.5573550474007228</v>
+        <v>0.6577852954594023</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.25495216737674</v>
+        <v>77.62766766666668</v>
       </c>
       <c r="N5">
-        <v>4.25495216737674</v>
+        <v>232.883003</v>
       </c>
       <c r="O5">
-        <v>0.01391131790585118</v>
+        <v>0.2325920301377057</v>
       </c>
       <c r="P5">
-        <v>0.01391131790585118</v>
+        <v>0.233607438823602</v>
       </c>
       <c r="Q5">
-        <v>692.3286732193725</v>
+        <v>15849.47153930397</v>
       </c>
       <c r="R5">
-        <v>692.3286732193725</v>
+        <v>142645.2438537358</v>
       </c>
       <c r="S5">
-        <v>0.007753543250822208</v>
+        <v>0.1412226619487365</v>
       </c>
       <c r="T5">
-        <v>0.007753543250822208</v>
+        <v>0.1536635381680973</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,55 +779,55 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>49.3208283130339</v>
+        <v>204.172971</v>
       </c>
       <c r="H6">
-        <v>49.3208283130339</v>
+        <v>612.518913</v>
       </c>
       <c r="I6">
-        <v>0.1689447357387992</v>
+        <v>0.6071689638941019</v>
       </c>
       <c r="J6">
-        <v>0.1689447357387992</v>
+        <v>0.6577852954594023</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>169.690907399947</v>
+        <v>4.352083</v>
       </c>
       <c r="N6">
-        <v>169.690907399947</v>
+        <v>8.704166000000001</v>
       </c>
       <c r="O6">
-        <v>0.5547945231140841</v>
+        <v>0.0130399360269903</v>
       </c>
       <c r="P6">
-        <v>0.5547945231140841</v>
+        <v>0.008731242298328987</v>
       </c>
       <c r="Q6">
-        <v>8369.296110155719</v>
+        <v>888.577716148593</v>
       </c>
       <c r="R6">
-        <v>8369.296110155719</v>
+        <v>5331.466296891558</v>
       </c>
       <c r="S6">
-        <v>0.09372961409684204</v>
+        <v>0.007917444446753071</v>
       </c>
       <c r="T6">
-        <v>0.09372961409684204</v>
+        <v>0.005743282794933964</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,55 +841,55 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>49.3208283130339</v>
+        <v>51.831602</v>
       </c>
       <c r="H7">
-        <v>49.3208283130339</v>
+        <v>155.494806</v>
       </c>
       <c r="I7">
-        <v>0.1689447357387992</v>
+        <v>0.1541366613277693</v>
       </c>
       <c r="J7">
-        <v>0.1689447357387992</v>
+        <v>0.1669861856283815</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>54.6034433841246</v>
+        <v>196.8487906666667</v>
       </c>
       <c r="N7">
-        <v>54.6034433841246</v>
+        <v>590.546372</v>
       </c>
       <c r="O7">
-        <v>0.1785227729455335</v>
+        <v>0.5898085209504824</v>
       </c>
       <c r="P7">
-        <v>0.1785227729455335</v>
+        <v>0.5923834015035012</v>
       </c>
       <c r="Q7">
-        <v>2693.087056448876</v>
+        <v>10202.98817201598</v>
       </c>
       <c r="R7">
-        <v>2693.087056448876</v>
+        <v>91826.89354814382</v>
       </c>
       <c r="S7">
-        <v>0.03016048269864081</v>
+        <v>0.09091111624197702</v>
       </c>
       <c r="T7">
-        <v>0.03016048269864081</v>
+        <v>0.09891984464663568</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,55 +903,55 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>49.3208283130339</v>
+        <v>51.831602</v>
       </c>
       <c r="H8">
-        <v>49.3208283130339</v>
+        <v>155.494806</v>
       </c>
       <c r="I8">
-        <v>0.1689447357387992</v>
+        <v>0.1541366613277693</v>
       </c>
       <c r="J8">
-        <v>0.1689447357387992</v>
+        <v>0.1669861856283815</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>77.3133188485382</v>
+        <v>0.2899643333333333</v>
       </c>
       <c r="N8">
-        <v>77.3133188485382</v>
+        <v>0.869893</v>
       </c>
       <c r="O8">
-        <v>0.2527713860345311</v>
+        <v>0.0008688061226717315</v>
       </c>
       <c r="P8">
-        <v>0.2527713860345311</v>
+        <v>0.0008725990010553907</v>
       </c>
       <c r="Q8">
-        <v>3813.1569252396</v>
+        <v>15.02931591952867</v>
       </c>
       <c r="R8">
-        <v>3813.1569252396</v>
+        <v>135.263843275758</v>
       </c>
       <c r="S8">
-        <v>0.04270439501593386</v>
+        <v>0.0001339148750897451</v>
       </c>
       <c r="T8">
-        <v>0.04270439501593386</v>
+        <v>0.0001457119787693757</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,60 +965,60 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>49.3208283130339</v>
+        <v>51.831602</v>
       </c>
       <c r="H9">
-        <v>49.3208283130339</v>
+        <v>155.494806</v>
       </c>
       <c r="I9">
-        <v>0.1689447357387992</v>
+        <v>0.1541366613277693</v>
       </c>
       <c r="J9">
-        <v>0.1689447357387992</v>
+        <v>0.1669861856283815</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>4.25495216737674</v>
+        <v>54.63182799999999</v>
       </c>
       <c r="N9">
-        <v>4.25495216737674</v>
+        <v>163.895484</v>
       </c>
       <c r="O9">
-        <v>0.01391131790585118</v>
+        <v>0.1636907067621498</v>
       </c>
       <c r="P9">
-        <v>0.01391131790585118</v>
+        <v>0.1644053183735123</v>
       </c>
       <c r="Q9">
-        <v>209.8577653273597</v>
+        <v>2831.655165428455</v>
       </c>
       <c r="R9">
-        <v>209.8577653273597</v>
+        <v>25484.8964888561</v>
       </c>
       <c r="S9">
-        <v>0.002350243927382453</v>
+        <v>0.02523073903070068</v>
       </c>
       <c r="T9">
-        <v>0.002350243927382453</v>
+        <v>0.02745341701221249</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,60 +1027,60 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.88232630910826</v>
+        <v>51.831602</v>
       </c>
       <c r="H10">
-        <v>0.88232630910826</v>
+        <v>155.494806</v>
       </c>
       <c r="I10">
-        <v>0.003022341477754382</v>
+        <v>0.1541366613277693</v>
       </c>
       <c r="J10">
-        <v>0.003022341477754382</v>
+        <v>0.1669861856283815</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>169.690907399947</v>
+        <v>77.62766766666668</v>
       </c>
       <c r="N10">
-        <v>169.690907399947</v>
+        <v>232.883003</v>
       </c>
       <c r="O10">
-        <v>0.5547945231140841</v>
+        <v>0.2325920301377057</v>
       </c>
       <c r="P10">
-        <v>0.5547945231140841</v>
+        <v>0.233607438823602</v>
       </c>
       <c r="Q10">
-        <v>149.7227520154268</v>
+        <v>4023.566374686936</v>
       </c>
       <c r="R10">
-        <v>149.7227520154268</v>
+        <v>36212.09737218242</v>
       </c>
       <c r="S10">
-        <v>0.001676778498838658</v>
+        <v>0.03585095897687385</v>
       </c>
       <c r="T10">
-        <v>0.001676778498838658</v>
+        <v>0.03900921514356877</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,55 +1089,55 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.88232630910826</v>
+        <v>51.831602</v>
       </c>
       <c r="H11">
-        <v>0.88232630910826</v>
+        <v>155.494806</v>
       </c>
       <c r="I11">
-        <v>0.003022341477754382</v>
+        <v>0.1541366613277693</v>
       </c>
       <c r="J11">
-        <v>0.003022341477754382</v>
+        <v>0.1669861856283815</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>54.6034433841246</v>
+        <v>4.352083</v>
       </c>
       <c r="N11">
-        <v>54.6034433841246</v>
+        <v>8.704166000000001</v>
       </c>
       <c r="O11">
-        <v>0.1785227729455335</v>
+        <v>0.0130399360269903</v>
       </c>
       <c r="P11">
-        <v>0.1785227729455335</v>
+        <v>0.008731242298328987</v>
       </c>
       <c r="Q11">
-        <v>48.1780546657165</v>
+        <v>225.575433926966</v>
       </c>
       <c r="R11">
-        <v>48.1780546657165</v>
+        <v>1353.452603561796</v>
       </c>
       <c r="S11">
-        <v>0.0005395567813970138</v>
+        <v>0.002009932203127981</v>
       </c>
       <c r="T11">
-        <v>0.0005395567813970138</v>
+        <v>0.00145799684719514</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,55 +1151,55 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.88232630910826</v>
+        <v>1.131122666666666</v>
       </c>
       <c r="H12">
-        <v>0.88232630910826</v>
+        <v>3.393368</v>
       </c>
       <c r="I12">
-        <v>0.003022341477754382</v>
+        <v>0.003363729166468041</v>
       </c>
       <c r="J12">
-        <v>0.003022341477754382</v>
+        <v>0.003644144735956065</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>77.3133188485382</v>
+        <v>196.8487906666667</v>
       </c>
       <c r="N12">
-        <v>77.3133188485382</v>
+        <v>590.546372</v>
       </c>
       <c r="O12">
-        <v>0.2527713860345311</v>
+        <v>0.5898085209504824</v>
       </c>
       <c r="P12">
-        <v>0.2527713860345311</v>
+        <v>0.5923834015035012</v>
       </c>
       <c r="Q12">
-        <v>68.21557526454079</v>
+        <v>222.6601290289884</v>
       </c>
       <c r="R12">
-        <v>68.21557526454079</v>
+        <v>2003.941161260896</v>
       </c>
       <c r="S12">
-        <v>0.0007639614444016281</v>
+        <v>0.001983956124552514</v>
       </c>
       <c r="T12">
-        <v>0.0007639614444016281</v>
+        <v>0.002158730854256732</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,60 +1213,60 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.88232630910826</v>
+        <v>1.131122666666666</v>
       </c>
       <c r="H13">
-        <v>0.88232630910826</v>
+        <v>3.393368</v>
       </c>
       <c r="I13">
-        <v>0.003022341477754382</v>
+        <v>0.003363729166468041</v>
       </c>
       <c r="J13">
-        <v>0.003022341477754382</v>
+        <v>0.003644144735956065</v>
       </c>
       <c r="K13">
         <v>1</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>4.25495216737674</v>
+        <v>0.2899643333333333</v>
       </c>
       <c r="N13">
-        <v>4.25495216737674</v>
+        <v>0.869893</v>
       </c>
       <c r="O13">
-        <v>0.01391131790585118</v>
+        <v>0.0008688061226717315</v>
       </c>
       <c r="P13">
-        <v>0.01391131790585118</v>
+        <v>0.0008725990010553907</v>
       </c>
       <c r="Q13">
-        <v>3.754256241273711</v>
+        <v>0.3279852299582222</v>
       </c>
       <c r="R13">
-        <v>3.754256241273711</v>
+        <v>2.951867069624</v>
       </c>
       <c r="S13">
-        <v>4.204475311708124E-05</v>
+        <v>2.922428494836914E-06</v>
       </c>
       <c r="T13">
-        <v>4.204475311708124E-05</v>
+        <v>3.179877056296523E-06</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1275,122 +1275,122 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.40274858336121</v>
+        <v>1.131122666666666</v>
       </c>
       <c r="H14">
-        <v>1.40274858336121</v>
+        <v>3.393368</v>
       </c>
       <c r="I14">
-        <v>0.00480500828615051</v>
+        <v>0.003363729166468041</v>
       </c>
       <c r="J14">
-        <v>0.00480500828615051</v>
+        <v>0.003644144735956065</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>169.690907399947</v>
+        <v>54.63182799999999</v>
       </c>
       <c r="N14">
-        <v>169.690907399947</v>
+        <v>163.895484</v>
       </c>
       <c r="O14">
-        <v>0.5547945231140841</v>
+        <v>0.1636907067621498</v>
       </c>
       <c r="P14">
-        <v>0.5547945231140841</v>
+        <v>0.1644053183735123</v>
       </c>
       <c r="Q14">
-        <v>238.033679964554</v>
+        <v>61.79529897223465</v>
       </c>
       <c r="R14">
-        <v>238.033679964554</v>
+        <v>556.1576907501119</v>
       </c>
       <c r="S14">
-        <v>0.002665792280674094</v>
+        <v>0.0005506112046156107</v>
       </c>
       <c r="T14">
-        <v>0.002665792280674094</v>
+        <v>0.0005991167755140159</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="B15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" t="s">
-        <v>22</v>
-      </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.40274858336121</v>
+        <v>1.131122666666666</v>
       </c>
       <c r="H15">
-        <v>1.40274858336121</v>
+        <v>3.393368</v>
       </c>
       <c r="I15">
-        <v>0.00480500828615051</v>
+        <v>0.003363729166468041</v>
       </c>
       <c r="J15">
-        <v>0.00480500828615051</v>
+        <v>0.003644144735956065</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>54.6034433841246</v>
+        <v>77.62766766666668</v>
       </c>
       <c r="N15">
-        <v>54.6034433841246</v>
+        <v>232.883003</v>
       </c>
       <c r="O15">
-        <v>0.1785227729455335</v>
+        <v>0.2325920301377057</v>
       </c>
       <c r="P15">
-        <v>0.1785227729455335</v>
+        <v>0.233607438823602</v>
       </c>
       <c r="Q15">
-        <v>76.59490285372483</v>
+        <v>87.80641445823377</v>
       </c>
       <c r="R15">
-        <v>76.59490285372483</v>
+        <v>790.257730124104</v>
       </c>
       <c r="S15">
-        <v>0.0008578034032698548</v>
+        <v>0.0007823765956622144</v>
       </c>
       <c r="T15">
-        <v>0.0008578034032698548</v>
+        <v>0.0008512993184692077</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
@@ -1399,55 +1399,55 @@
         <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.40274858336121</v>
+        <v>1.131122666666666</v>
       </c>
       <c r="H16">
-        <v>1.40274858336121</v>
+        <v>3.393368</v>
       </c>
       <c r="I16">
-        <v>0.00480500828615051</v>
+        <v>0.003363729166468041</v>
       </c>
       <c r="J16">
-        <v>0.00480500828615051</v>
+        <v>0.003644144735956065</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>77.3133188485382</v>
+        <v>4.352083</v>
       </c>
       <c r="N16">
-        <v>77.3133188485382</v>
+        <v>8.704166000000001</v>
       </c>
       <c r="O16">
-        <v>0.2527713860345311</v>
+        <v>0.0130399360269903</v>
       </c>
       <c r="P16">
-        <v>0.2527713860345311</v>
+        <v>0.008731242298328987</v>
       </c>
       <c r="Q16">
-        <v>108.4511484897405</v>
+        <v>4.922739728514666</v>
       </c>
       <c r="R16">
-        <v>108.4511484897405</v>
+        <v>29.536438371088</v>
       </c>
       <c r="S16">
-        <v>0.001214568604397672</v>
+        <v>4.386281314286465E-05</v>
       </c>
       <c r="T16">
-        <v>0.001214568604397672</v>
+        <v>3.181791065981251E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,60 +1461,60 @@
         <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.40274858336121</v>
+        <v>1.507087333333333</v>
       </c>
       <c r="H17">
-        <v>1.40274858336121</v>
+        <v>4.521262</v>
       </c>
       <c r="I17">
-        <v>0.00480500828615051</v>
+        <v>0.004481771755566633</v>
       </c>
       <c r="J17">
-        <v>0.00480500828615051</v>
+        <v>0.004855392376299355</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>4.25495216737674</v>
+        <v>196.8487906666667</v>
       </c>
       <c r="N17">
-        <v>4.25495216737674</v>
+        <v>590.546372</v>
       </c>
       <c r="O17">
-        <v>0.01391131790585118</v>
+        <v>0.5898085209504824</v>
       </c>
       <c r="P17">
-        <v>0.01391131790585118</v>
+        <v>0.5923834015035012</v>
       </c>
       <c r="Q17">
-        <v>5.968628125057433</v>
+        <v>296.6683189957183</v>
       </c>
       <c r="R17">
-        <v>5.968628125057433</v>
+        <v>2670.014870961464</v>
       </c>
       <c r="S17">
-        <v>6.684399780888887E-05</v>
+        <v>0.002643387170388403</v>
       </c>
       <c r="T17">
-        <v>6.684399780888887E-05</v>
+        <v>0.00287625385150638</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
         <v>25</v>
@@ -1523,60 +1523,60 @@
         <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>77.6175118675371</v>
+        <v>1.507087333333333</v>
       </c>
       <c r="H18">
-        <v>77.6175118675371</v>
+        <v>4.521262</v>
       </c>
       <c r="I18">
-        <v>0.2658728670965732</v>
+        <v>0.004481771755566633</v>
       </c>
       <c r="J18">
-        <v>0.2658728670965732</v>
+        <v>0.004855392376299355</v>
       </c>
       <c r="K18">
         <v>1</v>
       </c>
       <c r="L18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M18">
-        <v>169.690907399947</v>
+        <v>0.2899643333333333</v>
       </c>
       <c r="N18">
-        <v>169.690907399947</v>
+        <v>0.869893</v>
       </c>
       <c r="O18">
-        <v>0.5547945231140841</v>
+        <v>0.0008688061226717315</v>
       </c>
       <c r="P18">
-        <v>0.5547945231140841</v>
+        <v>0.0008725990010553907</v>
       </c>
       <c r="Q18">
-        <v>13170.98601892853</v>
+        <v>0.4370015738851111</v>
       </c>
       <c r="R18">
-        <v>13170.98601892853</v>
+        <v>3.933014164966</v>
       </c>
       <c r="S18">
-        <v>0.1475048105098176</v>
+        <v>3.893790741653525E-06</v>
       </c>
       <c r="T18">
-        <v>0.1475048105098176</v>
+        <v>4.236810537290777E-06</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
         <v>25</v>
@@ -1588,57 +1588,57 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>77.6175118675371</v>
+        <v>1.507087333333333</v>
       </c>
       <c r="H19">
-        <v>77.6175118675371</v>
+        <v>4.521262</v>
       </c>
       <c r="I19">
-        <v>0.2658728670965732</v>
+        <v>0.004481771755566633</v>
       </c>
       <c r="J19">
-        <v>0.2658728670965732</v>
+        <v>0.004855392376299355</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>54.6034433841246</v>
+        <v>54.63182799999999</v>
       </c>
       <c r="N19">
-        <v>54.6034433841246</v>
+        <v>163.895484</v>
       </c>
       <c r="O19">
-        <v>0.1785227729455335</v>
+        <v>0.1636907067621498</v>
       </c>
       <c r="P19">
-        <v>0.1785227729455335</v>
+        <v>0.1644053183735123</v>
       </c>
       <c r="Q19">
-        <v>4238.183414875682</v>
+        <v>82.33493597564532</v>
       </c>
       <c r="R19">
-        <v>4238.183414875682</v>
+        <v>741.014423780808</v>
       </c>
       <c r="S19">
-        <v>0.04746436148505954</v>
+        <v>0.000733624386215343</v>
       </c>
       <c r="T19">
-        <v>0.04746436148505954</v>
+        <v>0.0007982523294538201</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
         <v>25</v>
@@ -1650,57 +1650,57 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>77.6175118675371</v>
+        <v>1.507087333333333</v>
       </c>
       <c r="H20">
-        <v>77.6175118675371</v>
+        <v>4.521262</v>
       </c>
       <c r="I20">
-        <v>0.2658728670965732</v>
+        <v>0.004481771755566633</v>
       </c>
       <c r="J20">
-        <v>0.2658728670965732</v>
+        <v>0.004855392376299355</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>77.3133188485382</v>
+        <v>77.62766766666668</v>
       </c>
       <c r="N20">
-        <v>77.3133188485382</v>
+        <v>232.883003</v>
       </c>
       <c r="O20">
-        <v>0.2527713860345311</v>
+        <v>0.2325920301377057</v>
       </c>
       <c r="P20">
-        <v>0.2527713860345311</v>
+        <v>0.233607438823602</v>
       </c>
       <c r="Q20">
-        <v>6000.867443245094</v>
+        <v>116.9916746566429</v>
       </c>
       <c r="R20">
-        <v>6000.867443245094</v>
+        <v>1052.925071909786</v>
       </c>
       <c r="S20">
-        <v>0.06720505312497549</v>
+        <v>0.001042424391241073</v>
       </c>
       <c r="T20">
-        <v>0.06720505312497549</v>
+        <v>0.001134255777510935</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
         <v>25</v>
@@ -1712,52 +1712,362 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>77.6175118675371</v>
+        <v>1.507087333333333</v>
       </c>
       <c r="H21">
-        <v>77.6175118675371</v>
+        <v>4.521262</v>
       </c>
       <c r="I21">
-        <v>0.2658728670965732</v>
+        <v>0.004481771755566633</v>
       </c>
       <c r="J21">
-        <v>0.2658728670965732</v>
+        <v>0.004855392376299355</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>4.25495216737674</v>
+        <v>4.352083</v>
       </c>
       <c r="N21">
-        <v>4.25495216737674</v>
+        <v>8.704166000000001</v>
       </c>
       <c r="O21">
-        <v>0.01391131790585118</v>
+        <v>0.0130399360269903</v>
       </c>
       <c r="P21">
-        <v>0.01391131790585118</v>
+        <v>0.008731242298328987</v>
       </c>
       <c r="Q21">
-        <v>330.2588003471669</v>
+        <v>6.558969162915334</v>
       </c>
       <c r="R21">
-        <v>330.2588003471669</v>
+        <v>39.35381497749201</v>
       </c>
       <c r="S21">
-        <v>0.003698641976720549</v>
+        <v>5.844201698016089E-05</v>
       </c>
       <c r="T21">
-        <v>0.003698641976720549</v>
+        <v>4.239360729092902E-05</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>77.627651</v>
+      </c>
+      <c r="H22">
+        <v>155.255302</v>
+      </c>
+      <c r="I22">
+        <v>0.230848873856094</v>
+      </c>
+      <c r="J22">
+        <v>0.1667289817999607</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>196.8487906666667</v>
+      </c>
+      <c r="N22">
+        <v>590.546372</v>
+      </c>
+      <c r="O22">
+        <v>0.5898085209504824</v>
+      </c>
+      <c r="P22">
+        <v>0.5923834015035012</v>
+      </c>
+      <c r="Q22">
+        <v>15280.90922164406</v>
+      </c>
+      <c r="R22">
+        <v>91685.45532986434</v>
+      </c>
+      <c r="S22">
+        <v>0.1361566328521473</v>
+      </c>
+      <c r="T22">
+        <v>0.09876748136787608</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>77.627651</v>
+      </c>
+      <c r="H23">
+        <v>155.255302</v>
+      </c>
+      <c r="I23">
+        <v>0.230848873856094</v>
+      </c>
+      <c r="J23">
+        <v>0.1667289817999607</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M23">
+        <v>0.2899643333333333</v>
+      </c>
+      <c r="N23">
+        <v>0.869893</v>
+      </c>
+      <c r="O23">
+        <v>0.0008688061226717315</v>
+      </c>
+      <c r="P23">
+        <v>0.0008725990010553907</v>
+      </c>
+      <c r="Q23">
+        <v>22.50925007044767</v>
+      </c>
+      <c r="R23">
+        <v>135.055500422686</v>
+      </c>
+      <c r="S23">
+        <v>0.0002005629150180487</v>
+      </c>
+      <c r="T23">
+        <v>0.0001454875429656282</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>77.627651</v>
+      </c>
+      <c r="H24">
+        <v>155.255302</v>
+      </c>
+      <c r="I24">
+        <v>0.230848873856094</v>
+      </c>
+      <c r="J24">
+        <v>0.1667289817999607</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>54.63182799999999</v>
+      </c>
+      <c r="N24">
+        <v>163.895484</v>
+      </c>
+      <c r="O24">
+        <v>0.1636907067621498</v>
+      </c>
+      <c r="P24">
+        <v>0.1644053183735123</v>
+      </c>
+      <c r="Q24">
+        <v>4240.940477476028</v>
+      </c>
+      <c r="R24">
+        <v>25445.64286485617</v>
+      </c>
+      <c r="S24">
+        <v>0.0377878153167504</v>
+      </c>
+      <c r="T24">
+        <v>0.02741113133491409</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>77.627651</v>
+      </c>
+      <c r="H25">
+        <v>155.255302</v>
+      </c>
+      <c r="I25">
+        <v>0.230848873856094</v>
+      </c>
+      <c r="J25">
+        <v>0.1667289817999607</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>77.62766766666668</v>
+      </c>
+      <c r="N25">
+        <v>232.883003</v>
+      </c>
+      <c r="O25">
+        <v>0.2325920301377057</v>
+      </c>
+      <c r="P25">
+        <v>0.233607438823602</v>
+      </c>
+      <c r="Q25">
+        <v>6026.053493571985</v>
+      </c>
+      <c r="R25">
+        <v>36156.32096143191</v>
+      </c>
+      <c r="S25">
+        <v>0.05369360822519206</v>
+      </c>
+      <c r="T25">
+        <v>0.03894913041595578</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>77.627651</v>
+      </c>
+      <c r="H26">
+        <v>155.255302</v>
+      </c>
+      <c r="I26">
+        <v>0.230848873856094</v>
+      </c>
+      <c r="J26">
+        <v>0.1667289817999607</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>4.352083</v>
+      </c>
+      <c r="N26">
+        <v>8.704166000000001</v>
+      </c>
+      <c r="O26">
+        <v>0.0130399360269903</v>
+      </c>
+      <c r="P26">
+        <v>0.008731242298328987</v>
+      </c>
+      <c r="Q26">
+        <v>337.841980247033</v>
+      </c>
+      <c r="R26">
+        <v>1351.367920988132</v>
+      </c>
+      <c r="S26">
+        <v>0.00301025454698622</v>
+      </c>
+      <c r="T26">
+        <v>0.001455751138249141</v>
       </c>
     </row>
   </sheetData>
